--- a/datas/塩分濃度センサ実験.xlsx
+++ b/datas/塩分濃度センサ実験.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC191209\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kosenjp-my.sharepoint.com/personal/ic191209_edu_okinawa-ct_ac_jp/Documents/5年/卒研/実験データちゃんたち/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E2AF3E-75BF-483C-A752-4669D60E7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{C6E2AF3E-75BF-483C-A752-4669D60E7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C5AB87-0DF2-4529-A1CB-709257084C1D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFA2624B-90BE-4AEE-A960-305F5B2DB5AD}"/>
+    <workbookView minimized="1" xWindow="2780" yWindow="2830" windowWidth="10160" windowHeight="4820" xr2:uid="{CFA2624B-90BE-4AEE-A960-305F5B2DB5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセント電極 (2)" sheetId="5" r:id="rId1"/>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アドミタンス[s]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アドミタンス(近似値)[s]</t>
     <rPh sb="7" eb="10">
       <t>キンジチ</t>
@@ -319,6 +315,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アドミタンス(実測値)[s]</t>
+    <rPh sb="7" eb="10">
+      <t>ジッソクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -703,10 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
@@ -723,6 +723,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,6 +1037,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>塩分濃度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>電極間アドミタンス</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1049,7 +1115,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>アドミタンス[s]</c:v>
+                  <c:v>アドミタンス(実測値)[s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1066,6 +1132,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'コンセント電極 (2)'!$E$6:$E$19</c:f>
@@ -1201,6 +1270,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'コンセント電極 (2)'!$E$6:$E$19</c:f>
@@ -1311,8 +1383,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1342,6 +1415,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>塩分濃度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1404,6 +1537,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>電極間アドミタンス</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1453,6 +1646,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1511,6 +1735,82 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>塩分濃度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>塩分濃度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>測定値</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1787,141 +2087,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'コンセント電極 (2)'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>塩分濃度(電圧から計算)[%]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'コンセント電極 (2)'!$E$6:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4500000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'コンセント電極 (2)'!$M$6:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6.4099705941007175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1645854217104672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0800371248360081</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0217806209250897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9155606565993581</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8434851961281762</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8118264880184212</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7882316564132834</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7104918642623108</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.619010742653666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.522062516011256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.4272835267980239</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.1216548382749885</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9964661520929585</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D3F0-4973-8BB9-D6F1081E0F79}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1932,6 +2097,165 @@
         </c:dLbls>
         <c:axId val="703372272"/>
         <c:axId val="1245519968"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'コンセント電極 (2)'!$M$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>塩分濃度(電圧から計算)[%]</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'コンセント電極 (2)'!$E$6:$E$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.8000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.1999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.55</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.75</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4500000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'コンセント電極 (2)'!$M$6:$M$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>6.4099705941007175</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.1645854217104672</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.0800371248360081</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.0217806209250897</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.9155606565993581</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.8434851961281762</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.8118264880184212</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.7882316564132834</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.7104918642623108</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.619010742653666</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.522062516011256</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5.4272835267980239</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5.1216548382749885</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4.9964661520929585</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D3F0-4973-8BB9-D6F1081E0F79}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="703372272"/>
@@ -1954,6 +2278,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>塩分濃度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2016,6 +2400,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>塩分濃度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>測定値</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2065,6 +2517,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3818,15 +4301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>176891</xdr:colOff>
+      <xdr:colOff>467176</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578000</xdr:colOff>
+      <xdr:colOff>868285</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>189139</xdr:rowOff>
+      <xdr:rowOff>207282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3853,16 +4336,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>780144</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1006928</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>116114</xdr:rowOff>
+      <xdr:rowOff>52614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1524001</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>137885</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1496785</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4189,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06AEC97-F629-4F20-AC86-70F5898BB5FE}">
   <dimension ref="B2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4199,7 +4682,8 @@
     <col min="3" max="3" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.58203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" customWidth="1"/>
     <col min="11" max="11" width="30.08203125" customWidth="1"/>
@@ -4210,18 +4694,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="5" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4231,40 +4715,40 @@
       <c r="C5">
         <v>100</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="19"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
@@ -4279,11 +4763,11 @@
       <c r="F6" s="4">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <f>($C$8*($C$7-F6))/F6</f>
         <v>460.17699115044252</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <f>1/G6</f>
         <v>2.173076923076923E-3</v>
       </c>
@@ -4295,7 +4779,7 @@
         <f>(H6-I6)^2</f>
         <v>5.7843315218034026E-10</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <f>((F6/($C$8*($C$7-F6)))-$C$14)/$C$13</f>
         <v>10.572686723828102</v>
       </c>
@@ -4304,11 +4788,11 @@
         <v>10.572686723828102</v>
       </c>
       <c r="M6" s="4">
-        <f>$C$6/G6</f>
+        <f t="shared" ref="M6:M19" si="0">$C$6/G6</f>
         <v>6.4099705941007175</v>
       </c>
       <c r="N6" s="4">
-        <f>E6-M6</f>
+        <f t="shared" ref="N6:N19" si="1">E6-M6</f>
         <v>3.5900294058992825</v>
       </c>
       <c r="O6" s="5">
@@ -4334,7 +4818,7 @@
         <v>478.49462365591376</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H7:H19" si="0">1/G7</f>
+        <f t="shared" ref="H7:H19" si="2">1/G7</f>
         <v>2.089887640449439E-3</v>
       </c>
       <c r="I7" s="2">
@@ -4342,23 +4826,23 @@
         <v>2.0986309064668146E-3</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J19" si="1">(H7-I7)^2</f>
+        <f t="shared" ref="J7:J19" si="3">(H7-I7)^2</f>
         <v>7.64447006505936E-11</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:K19" si="2">((F7/($C$8*($C$7-F7)))-$C$14)/$C$13</f>
+        <f t="shared" ref="K7:K19" si="4">((F7/($C$8*($C$7-F7)))-$C$14)/$C$13</f>
         <v>8.591807912664148</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" ref="L7:L19" si="3">(H7-$C$14)/$C$13</f>
+        <f t="shared" ref="L7:L19" si="5">(H7-$C$14)/$C$13</f>
         <v>8.5918079126641373</v>
       </c>
       <c r="M7" s="2">
-        <f>$C$6/G7</f>
+        <f t="shared" si="0"/>
         <v>6.1645854217104672</v>
       </c>
       <c r="N7" s="2">
-        <f>E7-M7</f>
+        <f t="shared" si="1"/>
         <v>2.6354145782895335</v>
       </c>
       <c r="O7" s="7">
@@ -4381,39 +4865,39 @@
         <v>2.222</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:G19" si="4">($C$8*($C$7-F8))/F8</f>
+        <f t="shared" ref="G8:G19" si="6">($C$8*($C$7-F8))/F8</f>
         <v>485.14851485148506</v>
       </c>
       <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0612244897959186E-3</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:I19" si="7">($C$13*E8)+$C$14</f>
+        <v>2.0734332167872721E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4905301474940347E-10</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="4"/>
+        <v>7.9092893718443023</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
+        <v>7.9092893718443023</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.0612244897959186E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" ref="I8:I19" si="5">($C$13*E8)+$C$14</f>
-        <v>2.0734332167872721E-3</v>
-      </c>
-      <c r="J8" s="2">
+        <v>6.0800371248360081</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4905301474940347E-10</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="2"/>
-        <v>7.9092893718443023</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="3"/>
-        <v>7.9092893718443023</v>
-      </c>
-      <c r="M8" s="2">
-        <f>$C$6/G8</f>
-        <v>6.0800371248360081</v>
-      </c>
-      <c r="N8" s="2">
-        <f>E8-M8</f>
         <v>2.1199628751639912</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" ref="O8:O19" si="6">N8*N8</f>
+        <f t="shared" ref="O8:O19" si="8">N8*N8</f>
         <v>4.4942425920735758</v>
       </c>
     </row>
@@ -4425,39 +4909,39 @@
         <v>2.2149999999999999</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="6"/>
+        <v>489.84198645598195</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0414746543778802E-3</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0545349495276152E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7057130939819196E-10</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>489.84198645598195</v>
-      </c>
-      <c r="H9" s="2">
+        <v>7.4390120804923159</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>7.4390120804923159</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="0"/>
-        <v>2.0414746543778802E-3</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="5"/>
-        <v>2.0545349495276152E-3</v>
-      </c>
-      <c r="J9" s="2">
+        <v>6.0217806209250897</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
-        <v>1.7057130939819196E-10</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="2"/>
-        <v>7.4390120804923159</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="3"/>
-        <v>7.4390120804923159</v>
-      </c>
-      <c r="M9" s="2">
-        <f>$C$6/G9</f>
-        <v>6.0217806209250897</v>
-      </c>
-      <c r="N9" s="2">
-        <f>E9-M9</f>
         <v>1.7282193790749103</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9867422222100686</v>
       </c>
     </row>
@@ -4476,39 +4960,39 @@
         <v>2.202</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="6"/>
+        <v>498.63760217983639</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0054644808743176E-3</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0230378374281877E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0882286056944886E-10</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>498.63760217983639</v>
-      </c>
-      <c r="H10" s="2">
+        <v>6.5815483853314252</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>6.5815483853314358</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="0"/>
-        <v>2.0054644808743176E-3</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="5"/>
-        <v>2.0230378374281877E-3</v>
-      </c>
-      <c r="J10" s="2">
+        <v>5.9155606565993581</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
-        <v>3.0882286056944886E-10</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="2"/>
-        <v>6.5815483853314252</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="3"/>
-        <v>6.5815483853314358</v>
-      </c>
-      <c r="M10" s="2">
-        <f>$C$6/G10</f>
-        <v>5.9155606565993581</v>
-      </c>
-      <c r="N10" s="2">
-        <f>E10-M10</f>
         <v>1.0844393434006419</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1760086895152153</v>
       </c>
     </row>
@@ -4520,15 +5004,15 @@
         <v>2.1930000000000001</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>504.7879616963063</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9810298102981034E-3</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9873411103821692E-3</v>
       </c>
       <c r="J11" s="2">
@@ -4536,29 +5020,29 @@
         <v>3.9832508751129388E-11</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9997171725424545</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9997171725424545</v>
       </c>
       <c r="M11" s="2">
-        <f>$C$6/G11</f>
+        <f t="shared" si="0"/>
         <v>5.8434851961281762</v>
       </c>
       <c r="N11" s="2">
-        <f>E11-M11</f>
+        <f t="shared" si="1"/>
         <v>0.30651480387182417</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.3951324992582838E-2</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>-1.0211564804143358E-5</v>
@@ -4570,45 +5054,45 @@
         <v>2.1890000000000001</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="6"/>
+        <v>507.53768844221094</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9702970297029707E-3</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9621434207026268E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>6.6481339730490208E-11</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="4"/>
-        <v>507.53768844221094</v>
-      </c>
-      <c r="H12" s="2">
+        <v>5.7441513473030135</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
+        <v>5.7441513473030135</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="0"/>
-        <v>1.9702970297029707E-3</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="5"/>
-        <v>1.9621434207026268E-3</v>
-      </c>
-      <c r="J12" s="2">
+        <v>5.8118264880184212</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="1"/>
-        <v>6.6481339730490208E-11</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7441513473030135</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7441513473030135</v>
-      </c>
-      <c r="M12" s="2">
-        <f>$C$6/G12</f>
-        <v>5.8118264880184212</v>
-      </c>
-      <c r="N12" s="2">
-        <f>E12-M12</f>
         <v>-0.26182648801842134</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.8553109828060538E-2</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>4.1996149465903903E-5</v>
@@ -4620,45 +5104,45 @@
         <v>2.1859999999999999</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="6"/>
+        <v>509.60658737419936</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9622980251346503E-3</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9390455384963796E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>5.4067813486296109E-10</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>509.60658737419936</v>
-      </c>
-      <c r="H13" s="2">
+        <v>5.5536813954133848</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="5"/>
+        <v>5.5536813954133848</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="0"/>
-        <v>1.9622980251346503E-3</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="5"/>
-        <v>1.9390455384963796E-3</v>
-      </c>
-      <c r="J13" s="2">
+        <v>5.7882316564132834</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="1"/>
-        <v>5.4067813486296109E-10</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="2"/>
-        <v>5.5536813954133848</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="3"/>
-        <v>5.5536813954133848</v>
-      </c>
-      <c r="M13" s="2">
-        <f>$C$6/G13</f>
-        <v>5.7882316564132834</v>
-      </c>
-      <c r="N13" s="2">
-        <f>E13-M13</f>
         <v>-0.78823165641328341</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.62130914417202843</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>1.7290647911668601E-3</v>
@@ -4670,45 +5154,45 @@
         <v>2.1760000000000002</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="6"/>
+        <v>516.54411764705867</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9359430604982213E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9180474637634276E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2025238249435953E-10</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="4"/>
-        <v>516.54411764705867</v>
-      </c>
-      <c r="H14" s="2">
+        <v>4.9261247033926914</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="5"/>
+        <v>4.9261247033926967</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="0"/>
-        <v>1.9359430604982213E-3</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="5"/>
-        <v>1.9180474637634276E-3</v>
-      </c>
-      <c r="J14" s="2">
+        <v>5.7104918642623108</v>
+      </c>
+      <c r="N14" s="2">
         <f t="shared" si="1"/>
-        <v>3.2025238249435953E-10</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="2"/>
-        <v>4.9261247033926914</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="3"/>
-        <v>4.9261247033926967</v>
-      </c>
-      <c r="M14" s="2">
-        <f>$C$6/G14</f>
-        <v>5.7104918642623108</v>
-      </c>
-      <c r="N14" s="2">
-        <f>E14-M14</f>
         <v>-1.2104918642623108</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4652905534452447</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <f>SUM(J6:J17)</f>
@@ -4721,39 +5205,39 @@
         <v>2.1640000000000001</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="6"/>
+        <v>524.95378927911258</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9049295774647894E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8970493890304756E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>6.2097369760292433E-11</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="4"/>
-        <v>524.95378927911258</v>
-      </c>
-      <c r="H15" s="2">
+        <v>4.1876407369373538</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1876407369373592</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="0"/>
-        <v>1.9049295774647894E-3</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="5"/>
-        <v>1.8970493890304756E-3</v>
-      </c>
-      <c r="J15" s="2">
+        <v>5.619010742653666</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="1"/>
-        <v>6.2097369760292433E-11</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="2"/>
-        <v>4.1876407369373538</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="3"/>
-        <v>4.1876407369373592</v>
-      </c>
-      <c r="M15" s="2">
-        <f>$C$6/G15</f>
-        <v>5.619010742653666</v>
-      </c>
-      <c r="N15" s="2">
-        <f>E15-M15</f>
         <v>-1.619010742653666</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6211957848279748</v>
       </c>
     </row>
@@ -4765,39 +5249,39 @@
         <v>2.1509999999999998</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="6"/>
+        <v>534.1701534170154</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8720626631853784E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8760513142975239E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5909337694419095E-11</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="4"/>
-        <v>534.1701534170154</v>
-      </c>
-      <c r="H16" s="2">
+        <v>3.4050234089822053</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4050234089822053</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="0"/>
-        <v>1.8720626631853784E-3</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="5"/>
-        <v>1.8760513142975239E-3</v>
-      </c>
-      <c r="J16" s="2">
+        <v>5.522062516011256</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="1"/>
-        <v>1.5909337694419095E-11</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4050234089822053</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4050234089822053</v>
-      </c>
-      <c r="M16" s="2">
-        <f>$C$6/G16</f>
-        <v>5.522062516011256</v>
-      </c>
-      <c r="N16" s="2">
-        <f>E16-M16</f>
         <v>-2.022062516011256</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0887368186577708</v>
       </c>
     </row>
@@ -4809,39 +5293,39 @@
         <v>2.1379999999999999</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="6"/>
+        <v>543.49859681945748</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8399311531841652E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8592528545111622E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7332814216967787E-10</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="4"/>
-        <v>543.49859681945748</v>
-      </c>
-      <c r="H17" s="2">
+        <v>2.6399173121172916</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="5"/>
+        <v>2.6399173121172916</v>
+      </c>
+      <c r="M17" s="2">
         <f t="shared" si="0"/>
-        <v>1.8399311531841652E-3</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="5"/>
-        <v>1.8592528545111622E-3</v>
-      </c>
-      <c r="J17" s="2">
+        <v>5.4272835267980239</v>
+      </c>
+      <c r="N17" s="2">
         <f t="shared" si="1"/>
-        <v>3.7332814216967787E-10</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="2"/>
-        <v>2.6399173121172916</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="3"/>
-        <v>2.6399173121172916</v>
-      </c>
-      <c r="M17" s="2">
-        <f>$C$6/G17</f>
-        <v>5.4272835267980239</v>
-      </c>
-      <c r="N17" s="2">
-        <f>E17-M17</f>
         <v>-2.3272835267980239</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.4162486141054487</v>
       </c>
     </row>
@@ -4853,39 +5337,39 @@
         <v>2.0939999999999999</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="6"/>
+        <v>575.93123209169062</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7363184079601988E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8445542021980959E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1714987154308414E-8</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="4"/>
-        <v>575.93123209169062</v>
-      </c>
-      <c r="H18" s="2">
+        <v>0.17272099670061392</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17272099670060875</v>
+      </c>
+      <c r="M18" s="2">
         <f t="shared" si="0"/>
-        <v>1.7363184079601988E-3</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="5"/>
-        <v>1.8445542021980959E-3</v>
-      </c>
-      <c r="J18" s="2">
+        <v>5.1216548382749885</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="1"/>
-        <v>1.1714987154308414E-8</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.17272099670061392</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="3"/>
-        <v>0.17272099670060875</v>
-      </c>
-      <c r="M18" s="2">
-        <f>$C$6/G18</f>
-        <v>5.1216548382749885</v>
-      </c>
-      <c r="N18" s="2">
-        <f>E18-M18</f>
         <v>-2.3716548382749885</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6247466719131616</v>
       </c>
     </row>
@@ -4897,39 +5381,39 @@
         <v>2.0750000000000002</v>
       </c>
       <c r="G19" s="9">
+        <f t="shared" si="6"/>
+        <v>590.36144578313224</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6938775510204091E-3</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="7"/>
+        <v>1.8319553573583247E-3</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>1.9065480603090929E-8</v>
+      </c>
+      <c r="K19" s="9">
         <f t="shared" si="4"/>
-        <v>590.36144578313224</v>
-      </c>
-      <c r="H19" s="9">
+        <v>-0.83786824730251197</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.83786824730250686</v>
+      </c>
+      <c r="M19" s="9">
         <f t="shared" si="0"/>
-        <v>1.6938775510204091E-3</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="5"/>
-        <v>1.8319553573583247E-3</v>
-      </c>
-      <c r="J19" s="9">
+        <v>4.9964661520929585</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="1"/>
-        <v>1.9065480603090929E-8</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="2"/>
-        <v>-0.83786824730251197</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="3"/>
-        <v>-0.83786824730250686</v>
-      </c>
-      <c r="M19" s="9">
-        <f>$C$6/G19</f>
-        <v>4.9964661520929585</v>
-      </c>
-      <c r="N19" s="9">
-        <f>E19-M19</f>
         <v>-2.5464661520929583</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.484489863755118</v>
       </c>
     </row>
@@ -5035,18 +5519,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5509,18 +5993,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
